--- a/logs/lc_phone_log.xlsx
+++ b/logs/lc_phone_log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <t>last</t>
   </si>
@@ -232,6 +232,30 @@
   </si>
   <si>
     <t>803-292-3152</t>
+  </si>
+  <si>
+    <t>HAGGARD</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>321-506-2860</t>
+  </si>
+  <si>
+    <t>MARKHAM</t>
+  </si>
+  <si>
+    <t>REGGIE</t>
+  </si>
+  <si>
+    <t>352-697-0412</t>
+  </si>
+  <si>
+    <t>NATALIE</t>
+  </si>
+  <si>
+    <t>609-432-0596</t>
   </si>
 </sst>
 </file>
@@ -549,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,6 +849,39 @@
         <v>70</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C21">
     <sortCondition ref="A2:A21"/>
